--- a/Data Quisioner D3 Teknik Mesin 2021.xlsx
+++ b/Data Quisioner D3 Teknik Mesin 2021.xlsx
@@ -2682,34 +2682,130 @@
       </c>
       <c r="Z16" s="4"/>
     </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
     <row r="19" spans="1:27">
-      <c r="T19" s="5"/>
-      <c r="U19" s="5" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="T20" s="1" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="2">
         <f>COUNTIF(H:H,"Tinggi")</f>
         <v>7</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="2">
         <f>COUNTIF(H:H,"Sedang")</f>
         <v>5</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="2">
         <f>COUNTIF(H:H,"Rendah")</f>
         <v>1</v>
       </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
